--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117DE78E-9067-46DC-91BD-0AA83519FD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DAEB2E-B5BE-461B-81FC-78CE12C9D6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,15 +103,15 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Abilities.Abilities</t>
+    <t>Effects</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Abilities</t>
+    <t>Effects.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Abilities.xlsx</t>
+    <t>DataBase.TbEffects</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -593,16 +593,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">

--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DAEB2E-B5BE-461B-81FC-78CE12C9D6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30766F3C-CCCB-47BA-BA50-F9B27AE7BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,15 +103,15 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Effects</t>
+    <t>DataBase.TbAbility</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Effects.xlsx</t>
+    <t>Ability</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DataBase.TbEffects</t>
+    <t>Abilities.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +489,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -593,16 +593,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">

--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30766F3C-CCCB-47BA-BA50-F9B27AE7BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E80DB51-B3D9-4B67-9685-BFB58E3AF14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Abilities.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.TbWeapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapons.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +501,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -606,9 +618,18 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -716,6 +737,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="Buffs@Buffs.xlsx" xr:uid="{E04EC83A-659E-475D-B4CF-60D08CB3BD80}"/>
+    <hyperlink ref="E5" r:id="rId2" display="Buffs@Buffs.xlsx" xr:uid="{CB30F088-887A-4537-A526-C584D651C70D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E80DB51-B3D9-4B67-9685-BFB58E3AF14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC27C3B2-9378-4D21-A759-92BD9D5BDB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -123,7 +123,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Weapons.xlsx</t>
+    <t>Weapons@Gears.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.TbBody</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bodies@Gears.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +513,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -633,9 +645,18 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -737,7 +758,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="Buffs@Buffs.xlsx" xr:uid="{E04EC83A-659E-475D-B4CF-60D08CB3BD80}"/>
-    <hyperlink ref="E5" r:id="rId2" display="Buffs@Buffs.xlsx" xr:uid="{CB30F088-887A-4537-A526-C584D651C70D}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{CB30F088-887A-4537-A526-C584D651C70D}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{96AB2D22-0AC0-4AC9-9949-813F77142E7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC27C3B2-9378-4D21-A759-92BD9D5BDB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561BC6E7-CA4E-4A82-B193-6F71720192D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>Bodies@Gears.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.TbMobInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobs.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +525,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -660,9 +672,18 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>

--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561BC6E7-CA4E-4A82-B193-6F71720192D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801ECE58-D48C-4041-BD46-46567E9A2684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Abilities.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DataBase.TbWeapon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -148,6 +144,22 @@
   </si>
   <si>
     <t>Mobs.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buffs@Abilities.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abilities@Abilities.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.TbBuff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +537,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -638,57 +650,66 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="4"/>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -778,9 +799,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="Buffs@Buffs.xlsx" xr:uid="{E04EC83A-659E-475D-B4CF-60D08CB3BD80}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{E04EC83A-659E-475D-B4CF-60D08CB3BD80}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{CB30F088-887A-4537-A526-C584D651C70D}"/>
     <hyperlink ref="E6" r:id="rId3" xr:uid="{96AB2D22-0AC0-4AC9-9949-813F77142E7D}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{E903A0C3-BF34-4F48-9F75-5F140F8620E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801ECE58-D48C-4041-BD46-46567E9A2684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994ABDE8-E14D-4D73-8F00-822B020AE760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -160,6 +160,22 @@
   </si>
   <si>
     <t>DataBase.TbBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.TbConstants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constants.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>one</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -536,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -712,9 +728,21 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>

--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994ABDE8-E14D-4D73-8F00-822B020AE760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0671B7A-5BFE-4228-B858-BF16B7499F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>one</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.TbAbilityTree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityTree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityTree@Abilities.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +565,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -745,9 +757,18 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -831,6 +852,7 @@
     <hyperlink ref="E5" r:id="rId2" xr:uid="{CB30F088-887A-4537-A526-C584D651C70D}"/>
     <hyperlink ref="E6" r:id="rId3" xr:uid="{96AB2D22-0AC0-4AC9-9949-813F77142E7D}"/>
     <hyperlink ref="E8" r:id="rId4" xr:uid="{E903A0C3-BF34-4F48-9F75-5F140F8620E1}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{24E1FB43-0E64-4830-A3AF-FA0646A8CB5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0671B7A-5BFE-4228-B858-BF16B7499F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7652BA7-8722-4DEA-998C-79C5562C8FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>AbilityTree@Abilities.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.TbShield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shields@Gears.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -771,9 +783,18 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -853,6 +874,7 @@
     <hyperlink ref="E6" r:id="rId3" xr:uid="{96AB2D22-0AC0-4AC9-9949-813F77142E7D}"/>
     <hyperlink ref="E8" r:id="rId4" xr:uid="{E903A0C3-BF34-4F48-9F75-5F140F8620E1}"/>
     <hyperlink ref="E10" r:id="rId5" xr:uid="{24E1FB43-0E64-4830-A3AF-FA0646A8CB5E}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{D29DD9D1-C676-40C7-BFC4-9B6A198A9578}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7652BA7-8722-4DEA-998C-79C5562C8FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD4E715-BD31-4763-BBA9-ED9B3B83F5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mobs.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Buff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -200,6 +196,22 @@
   </si>
   <si>
     <t>Shields@Gears.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.TbBossMobInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossMobInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobs@Mobs.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosses@Mobs.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -576,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -690,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -734,72 +746,81 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -875,6 +896,8 @@
     <hyperlink ref="E8" r:id="rId4" xr:uid="{E903A0C3-BF34-4F48-9F75-5F140F8620E1}"/>
     <hyperlink ref="E10" r:id="rId5" xr:uid="{24E1FB43-0E64-4830-A3AF-FA0646A8CB5E}"/>
     <hyperlink ref="E11" r:id="rId6" xr:uid="{D29DD9D1-C676-40C7-BFC4-9B6A198A9578}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{1AB7D5F1-18A8-4B9F-9454-7BA1B5928DCB}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{9C4B7E9E-6450-4D76-A0F4-E9D5855CB08E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD4E715-BD31-4763-BBA9-ED9B3B83F5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356D92FA-6428-49B0-B765-AA74330C8BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>Bosses@Mobs.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.TbPlayerBuild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerBuild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Builds@Abilities.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +601,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -823,9 +835,18 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
@@ -898,6 +919,7 @@
     <hyperlink ref="E11" r:id="rId6" xr:uid="{D29DD9D1-C676-40C7-BFC4-9B6A198A9578}"/>
     <hyperlink ref="E7" r:id="rId7" xr:uid="{1AB7D5F1-18A8-4B9F-9454-7BA1B5928DCB}"/>
     <hyperlink ref="E12" r:id="rId8" xr:uid="{9C4B7E9E-6450-4D76-A0F4-E9D5855CB08E}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{418123FE-7A5F-4E91-9138-A408EDAA2983}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356D92FA-6428-49B0-B765-AA74330C8BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749C9C1A-1BB0-4840-9D55-F5380A31F17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -224,6 +224,18 @@
   </si>
   <si>
     <t>Builds@Abilities.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.TbStoreInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -601,7 +613,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -849,9 +861,18 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>

--- a/Tools/Luban/Datas/__tables__.xlsx
+++ b/Tools/Luban/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\NovaDrift\Tools\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749C9C1A-1BB0-4840-9D55-F5380A31F17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D0A53B-A908-4B91-9814-6D0C6701ECC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -236,6 +236,30 @@
   </si>
   <si>
     <t>Store.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.TbDroneInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DroneInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drones.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerUpInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase.TbPowertUpInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerUps.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +637,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -875,14 +899,32 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
